--- a/public/bandwidth_customers.xlsx
+++ b/public/bandwidth_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755AB8C0-AE4E-404D-81E5-0D263A2B12D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAC3E8-742A-4A09-B095-A3833F151F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8564000C-5963-4787-840A-8A97EBE72C31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Partner</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Account #</t>
-  </si>
-  <si>
     <t>__autotest-rvANvZOncc - Unassigned</t>
   </si>
   <si>
@@ -133,6 +130,15 @@
   </si>
   <si>
     <t>Tricom Technology Solutions</t>
+  </si>
+  <si>
+    <t>Account no</t>
+  </si>
+  <si>
+    <t>Last modified by</t>
+  </si>
+  <si>
+    <t>Created date &amp; time</t>
   </si>
 </sst>
 </file>
@@ -539,15 +545,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97076F4C-34F1-4D2A-9D04-F75A796C7136}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8">
+    <row r="1" spans="1:5" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,173 +565,181 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.799999999999997">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="40.799999999999997">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.399999999999999">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="30.6">
+    <row r="5" spans="1:5" ht="30.6">
       <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="20.399999999999999">
+    <row r="6" spans="1:5" ht="20.399999999999999">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="30.6">
+    <row r="7" spans="1:5" ht="30.6">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <v>18</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="20.399999999999999">
+    <row r="8" spans="1:5" ht="20.399999999999999">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>12</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="30.6">
+    <row r="9" spans="1:5" ht="30.6">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>9</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="30.6">
+    <row r="11" spans="1:5" ht="30.6">
       <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="20.399999999999999">
+    <row r="12" spans="1:5" ht="20.399999999999999">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>14</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="30.6">
+    <row r="13" spans="1:5" ht="30.6">
       <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="20.399999999999999">
+    <row r="14" spans="1:5" ht="20.399999999999999">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>19</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C16" s="3">
         <v>7</v>
@@ -730,10 +748,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
@@ -742,10 +760,10 @@
     </row>
     <row r="18" spans="1:4" ht="20.399999999999999">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -754,10 +772,10 @@
     </row>
     <row r="19" spans="1:4" ht="30.6">
       <c r="A19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>20</v>
@@ -766,10 +784,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>16</v>
@@ -778,10 +796,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
@@ -790,10 +808,10 @@
     </row>
     <row r="22" spans="1:4" ht="20.399999999999999">
       <c r="A22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -802,10 +820,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
         <v>6</v>
@@ -814,10 +832,10 @@
     </row>
     <row r="24" spans="1:4" ht="30.6">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>8</v>
@@ -826,10 +844,10 @@
     </row>
     <row r="25" spans="1:4" ht="20.399999999999999">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5">
         <v>11</v>
@@ -838,10 +856,10 @@
     </row>
     <row r="26" spans="1:4" ht="30.6">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>

--- a/public/bandwidth_customers.xlsx
+++ b/public/bandwidth_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAC3E8-742A-4A09-B095-A3833F151F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43A0D2-2116-4BA5-B8AE-59C3A548C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8564000C-5963-4787-840A-8A97EBE72C31}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <t>Last modified by</t>
   </si>
   <si>
-    <t>Created date &amp; time</t>
+    <t>Last modified date &amp; time</t>
   </si>
 </sst>
 </file>

--- a/public/bandwidth_customers.xlsx
+++ b/public/bandwidth_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43A0D2-2116-4BA5-B8AE-59C3A548C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79F71C-60F3-4BB3-81DF-449B0EE69D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8564000C-5963-4787-840A-8A97EBE72C31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Partner</t>
   </si>
@@ -139,6 +139,66 @@
   </si>
   <si>
     <t>Last modified date &amp; time</t>
+  </si>
+  <si>
+    <t>jareen</t>
+  </si>
+  <si>
+    <t>10/07/2024 10:32PM</t>
+  </si>
+  <si>
+    <t>anjani</t>
+  </si>
+  <si>
+    <t>15/03/2024 11:03PM</t>
+  </si>
+  <si>
+    <t>sindhuja</t>
+  </si>
+  <si>
+    <t>22/05/2024 9:32AM</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>17/05/2024 5:32PM</t>
+  </si>
+  <si>
+    <t>lohitha</t>
+  </si>
+  <si>
+    <t>27/06/2024 08:32AM</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>13/05/2024 07:15PM</t>
+  </si>
+  <si>
+    <t>phani</t>
+  </si>
+  <si>
+    <t>25/06/2024 09:45AM</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>12/06/2024 10:35PM</t>
+  </si>
+  <si>
+    <t>nikhil</t>
+  </si>
+  <si>
+    <t>23/06/2024 8:22AM</t>
+  </si>
+  <si>
+    <t>tejaswini</t>
+  </si>
+  <si>
+    <t>17/06/2024 9:38PM</t>
   </si>
 </sst>
 </file>
@@ -212,9 +272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -225,9 +284,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,23 +604,23 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
@@ -575,296 +631,331 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.799999999999997">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="20.399999999999999">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30.6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="20.399999999999999">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30.6">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>18</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="20.399999999999999">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30.6">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30.6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="20.399999999999999">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
-      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="30.6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.399999999999999">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>19</v>
       </c>
-      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.399999999999999">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="20.399999999999999">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="30.6">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="30.6">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>20</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>16</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.399999999999999">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="20.399999999999999">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>6</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="30.6">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="30.6">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>8</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="20.399999999999999">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="20.399999999999999">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>11</v>
       </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="30.6">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="30.6">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>13</v>
       </c>
-      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
